--- a/testData_cucumber/Desktop/Symbility/Datasheet.xlsx
+++ b/testData_cucumber/Desktop/Symbility/Datasheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52894329-6FAC-48B5-B0DD-4229E3F75071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Data" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>TC</t>
   </si>
@@ -344,12 +343,15 @@
   </si>
   <si>
     <t>TC001_Homeowners_XM_STP_Assignment_TD1</t>
+  </si>
+  <si>
+    <t>TC001_Notepad operations_TD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,91 +669,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="18" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="34" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="34" width="18.33203125" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="7.42578125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="49" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="54" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="49" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="54" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="27.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="22.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="65" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="68" max="69" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="70" max="71" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="65" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="68" max="69" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="70" max="71" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="26.88671875" customWidth="1" collapsed="1"/>
     <col min="74" max="74" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="75" max="77" width="19" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="80" max="82" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="85" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="80" max="82" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="91" max="93" width="17" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="96" max="96" width="30" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="97" max="97" width="30" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="103" max="103" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,9 +1082,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
